--- a/docs/RealTimeVariables.xlsx
+++ b/docs/RealTimeVariables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>pf</t>
   </si>
@@ -417,10 +417,28 @@
     <t>درصد فروش فروشندگان حقوقی</t>
   </si>
   <si>
-    <t>power_of_demand</t>
-  </si>
-  <si>
     <t>متغیر</t>
+  </si>
+  <si>
+    <t>d1_value</t>
+  </si>
+  <si>
+    <t>o1_value</t>
+  </si>
+  <si>
+    <t>ارزش ثف اول فروش</t>
+  </si>
+  <si>
+    <t>ارزش صف اول خرید</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>money_flow</t>
+  </si>
+  <si>
+    <t>ورود یا خروج پول حقیقی</t>
   </si>
 </sst>
 </file>
@@ -767,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +799,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>93</v>
@@ -1029,7 +1047,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B32" t="s">
         <v>126</v>
@@ -1077,241 +1095,265 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>37</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>111</v>
       </c>
     </row>

--- a/docs/RealTimeVariables.xlsx
+++ b/docs/RealTimeVariables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>pf</t>
   </si>
@@ -439,6 +439,27 @@
   </si>
   <si>
     <t>ورود یا خروج پول حقیقی</t>
+  </si>
+  <si>
+    <t>tno</t>
+  </si>
+  <si>
+    <t>tvol</t>
+  </si>
+  <si>
+    <t>tval</t>
+  </si>
+  <si>
+    <t>تعداد معاملات</t>
+  </si>
+  <si>
+    <t>ارزش معاملات</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>تعداد سهام</t>
   </si>
 </sst>
 </file>
@@ -785,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A1048554" workbookViewId="0">
+      <selection activeCell="C1048576" sqref="C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,433 +948,465 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>37</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B74" t="s">
         <v>111</v>
       </c>
     </row>

--- a/docs/RealTimeVariables.xlsx
+++ b/docs/RealTimeVariables.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
     <t>pf</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>تعداد سهام</t>
+  </si>
+  <si>
+    <t>ردیف</t>
   </si>
 </sst>
 </file>
@@ -806,607 +809,902 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1048554" workbookViewId="0">
-      <selection activeCell="C1048576" sqref="C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>140</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>141</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>142</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>145</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>55</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>58</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>59</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>137</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>60</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>62</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>64</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>138</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>133</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>134</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>13</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>15</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>18</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>20</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>16</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
         <v>17</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>19</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>21</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
         <v>24</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>26</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>22</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>23</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>25</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>27</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>30</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
         <v>32</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>28</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
         <v>29</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A74" si="1">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
         <v>31</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>33</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
         <v>36</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
         <v>38</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
         <v>34</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
         <v>35</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
         <v>37</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>111</v>
       </c>
     </row>

--- a/docs/RealTimeVariables.xlsx
+++ b/docs/RealTimeVariables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="152">
   <si>
     <t>pf</t>
   </si>
@@ -463,6 +463,18 @@
   </si>
   <si>
     <t>ردیف</t>
+  </si>
+  <si>
+    <t>o1_per_capita</t>
+  </si>
+  <si>
+    <t>d1_per_capita</t>
+  </si>
+  <si>
+    <t>سرانه صف اول خرید به میلیون تومان</t>
+  </si>
+  <si>
+    <t>سرانه صف اول فروش به میلیون تومان</t>
   </si>
 </sst>
 </file>
@@ -809,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +870,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A69" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1354,10 +1366,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,10 +1378,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,10 +1390,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,10 +1402,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,10 +1414,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,10 +1426,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1426,10 +1438,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,10 +1450,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,10 +1462,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,10 +1474,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,10 +1486,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,10 +1498,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1498,10 +1510,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,10 +1522,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,10 +1534,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1534,10 +1546,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,10 +1558,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,10 +1570,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1570,10 +1582,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,10 +1594,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,10 +1606,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,10 +1618,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1618,46 +1630,46 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A74" si="1">A67+1</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A70:A76" si="1">A69+1</f>
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1666,10 +1678,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1678,10 +1690,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1690,10 +1702,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1702,9 +1714,33 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
         <v>37</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>111</v>
       </c>
     </row>

--- a/docs/RealTimeVariables.xlsx
+++ b/docs/RealTimeVariables.xlsx
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
